--- a/Assets/_Excel/level.xlsx
+++ b/Assets/_Excel/level.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GameDevelop\OhMyCard\Assets\_Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GameDevelop\Project1\Assets\_Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{357B2EAC-4985-4091-98E4-90EF20CCDB8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5570C82-7CAD-4AC6-A149-1B13F9F485E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="15280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>ID</t>
   </si>
@@ -46,6 +46,34 @@
   </si>
   <si>
     <t>消耗</t>
+  </si>
+  <si>
+    <t>10001/10001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>10001/10002/10003</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemyIdList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enemyPosList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0/0,0,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0,0,0/3,0,1/-3,0,1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -88,8 +116,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -370,66 +399,95 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C5"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="3" width="33.1640625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>10000</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="1">
+        <v>10001</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="C2">
+      <c r="E2">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>10001</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
         <v>4</v>
       </c>
-      <c r="C3">
+      <c r="E3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>10002</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
         <v>5</v>
       </c>
-      <c r="C4">
+      <c r="E4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>10003</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+      <c r="D5" t="s">
         <v>6</v>
       </c>
-      <c r="C5">
+      <c r="E5">
         <v>3</v>
       </c>
     </row>
